--- a/pracownicy/pracownicy.xlsx
+++ b/pracownicy/pracownicy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="170">
   <si>
     <t xml:space="preserve">Zmiana</t>
   </si>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">slawomir.pietrowicz@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/slawomir_pietrowicz.jpg</t>
+    <t xml:space="preserve">public/foto/slawomir_pietrowicz.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">dr hab. inż. Magdalena Nemś, prof. uczelni</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">magdalena.nems@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/magdalena_nems.jpg</t>
+    <t xml:space="preserve">public/foto/magdalena_nems.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">dr hab. inż. Artur Nemś, prof. uczelni</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">artur.nems@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/artur_nems.jpg</t>
+    <t xml:space="preserve">public/foto/artur_nems.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">dr inż. Jacek Lamperski, prof. uczelni</t>
@@ -454,7 +454,7 @@
     <t xml:space="preserve">jacek.lamperski@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/jacek_lamperski.jpg</t>
+    <t xml:space="preserve">public/foto/jacek_lamperski.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">prof. dr hab. inż. Piotr Kolasiński</t>
@@ -499,10 +499,94 @@
     <t xml:space="preserve">dr hab. inż. Jerzy Zoń</t>
   </si>
   <si>
+    <t xml:space="preserve">Prowadzone projekty badawcze dotyczyły głównie poszukiwania inhibitorów enzymu roślinnego - amoniakoliazy fenyloalaniny oraz nowych materiałów funkcjonalnych z grupy  polimerów koordynacyjnych.
+Jestem współautorem 68 publikacji z listy filadelfijskiej (pięć spośród nich jest cytowana ponad 100 razy każda).
+Od kilku lat interesuję się odwracalnymi źródłami energii.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemiczne produkty otrzymywane z surowców i energii odnawialnej; katalityczne, elektrochemiczne i fotochemiczne reakcje dwutlenku węgla i metanu; recykling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jerzy.zon@pwr.edu.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">mgr inż. Jacek Bieńkowski</t>
   </si>
   <si>
     <t xml:space="preserve">mgr inż. Dominik Mazur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of the environmental-friendly refrigerant blends flammability due to climate change and safety considerations for the use of cooling devices based on combustible substances.
+Experimental evaluation of the selected mixture in the prototype cooling device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. dr hab. inż Sabina Rosiek – Pawłowska
+2. dr inż. Bartosz Gil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prowadzenie badań eksperymentalnych w obszarze palności alternatywnych czynników chłodniczych i ich mieszanin przy uwzględnieniu wpływu zmiennych parametrów otoczenia i składu mieszaniny.
+Badania obejmują również teoretyczną i eksperymentalną analizę energetyczną i środowiskową tzw. czynników nowej generacji w systemach chłodniczych instalacjach chłodzenia budynków.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czynniki chłodnicze, chłodnictwo, palność.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bud. L-1 pok. 390</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+48 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">71</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 340 79 55</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dominik.mazur@pwr.edu.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public/foto/dominik_mazur.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">mgr inż. Krzysztof Goljanek</t>
@@ -517,7 +601,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -544,6 +628,37 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -589,7 +704,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,7 +729,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,13 +768,13 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.22"/>
@@ -652,12 +783,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="164.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="127.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1325,34 +1456,71 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>151</v>
+      <c r="C35" s="0"/>
+      <c r="E35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="132.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>151</v>
@@ -1386,15 +1554,13 @@
     <hyperlink ref="I24" r:id="rId24" display="sabina.rosiek@pwr.edu.pl"/>
     <hyperlink ref="J24" r:id="rId25" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/sabina_rosiek.jpg"/>
     <hyperlink ref="I25" r:id="rId26" display="slawomir.pietrowicz@pwr.edu.pl"/>
-    <hyperlink ref="J25" r:id="rId27" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/slawomir_pietrowicz.jpg"/>
-    <hyperlink ref="I26" r:id="rId28" display="magdalena.nems@pwr.edu.pl"/>
-    <hyperlink ref="J26" r:id="rId29" display="https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/magdalena_nems.jpg"/>
-    <hyperlink ref="I27" r:id="rId30" display="artur.nems@pwr.edu.pl"/>
-    <hyperlink ref="J27" r:id="rId31" display="https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/artur_nems.jpg"/>
-    <hyperlink ref="I28" r:id="rId32" display="jacek.lamperski@pwr.edu.pl"/>
-    <hyperlink ref="J28" r:id="rId33" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/jacek_lamperski.jpg"/>
-    <hyperlink ref="I29" r:id="rId34" display="piotr.kolasinski@pwr.edu.pl"/>
-    <hyperlink ref="K30" r:id="rId35" display="&lt;p&gt;&lt;script type=&quot;text/javascript&quot; src=&quot;https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js&quot;&gt;&lt;/script&gt;&lt;/p&gt;"/>
+    <hyperlink ref="I26" r:id="rId27" display="magdalena.nems@pwr.edu.pl"/>
+    <hyperlink ref="I27" r:id="rId28" display="artur.nems@pwr.edu.pl"/>
+    <hyperlink ref="I28" r:id="rId29" display="jacek.lamperski@pwr.edu.pl"/>
+    <hyperlink ref="I29" r:id="rId30" display="piotr.kolasinski@pwr.edu.pl"/>
+    <hyperlink ref="K30" r:id="rId31" display="&lt;p&gt;&lt;script type=&quot;text/javascript&quot; src=&quot;https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js&quot;&gt;&lt;/script&gt;&lt;/p&gt;"/>
+    <hyperlink ref="I35" r:id="rId32" display="jerzy.zon@pwr.edu.pl"/>
+    <hyperlink ref="I37" r:id="rId33" display="dominik.mazur@pwr.edu.pl"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1413,7 +1579,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>

--- a/pracownicy/pracownicy.xlsx
+++ b/pracownicy/pracownicy.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">marcin.opalski@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/marcin_opalski.jpg</t>
+    <t xml:space="preserve">public/foto/marcin_opalski.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">mgr inż. Agnieszka Ochman</t>
@@ -141,7 +141,7 @@
     <t xml:space="preserve">sindu.daniarta@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/sindu_daniarta.jpg</t>
+    <t xml:space="preserve">public/foto/sindu_daniarta.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Doktoranci</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">zbigniew.gnutek@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/zbigniew_gnutek.jpg</t>
+    <t xml:space="preserve">public/foto/zbigniew_gnutek.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Pracownicy emerytowani</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">jagoda.blotny@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/jagoda_blotny.jpg</t>
+    <t xml:space="preserve">public/foto/jagoda_blotny.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">dr inż. Andrzej Nowak</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">michal.pomorski@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/michal_pomorski.jpg</t>
+    <t xml:space="preserve">public/foto/michal_pomorski.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">dr inż. Ewa Pelińska-Olko</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">pawel.pacyga@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/pawel_pacyga.jpg</t>
+    <t xml:space="preserve">public/foto/pawel_pacyga.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">dr inż. Marcin Michalski</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">bartosz.gil@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/bartosz_gil.jpg</t>
+    <t xml:space="preserve">public/foto/bartosz_gil.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">dr inż. Cezary Czajkowski</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">cezary.czajkowski@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/cezary_czajkowski.jpg</t>
+    <t xml:space="preserve">public/foto/cezary_czajkowski.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;a title="Charakterystyka" href="/pracownicy/cezary-czajkowski/charakterystyka" class="button-link"&gt;&lt;span class="text"&gt;Charakterystyka&lt;/span&gt;&lt;/a&gt;
@@ -385,7 +385,7 @@
     <t xml:space="preserve">sabina.rosiek@pwr.edu.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/sabina_rosiek.jpg</t>
+    <t xml:space="preserve">public/foto/sabina_rosiek.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Główny obszar swojej działalności naukowej skupia wokół analiz cieplno – przepływowych. Badania realizuje na dwóch płaszczyznach: doświadczalno - pomiarowej oraz analityczno - numerycznej. W przypadku badań doświadczalnych jest autorem wielu stanowisk/instalacji doświadczalnych takich jak: - określania sprawności sprężarek spiralnych; - badania intensyfikacji odbioru ciepła z powierzchni ożebrowanych; - badania nowych typów grzejników w zastosowaniu do budynków niskoenergetycznych; oraz dla następujących instytucji: CEA Saclay, Francja – badania cieplne nowych typów izolacji elektrycznych stosowanych w kablach nadprzewodzących pracujących w temperaturach helu nadciekłego oraz nasyconego; KEK, the High Energy Accelerator Research Organization, Tsukuba, Japan – badania cieplne nowych typów izolacji elektrycznych stosowanych w kablach nadprzewodzących pracujących w temperaturach helu nasyconego oraz nadkrytycznym głownie w stanach nieustalonych; Badania analityczno – numerycznych prowadzi głównie w oparciu o technikę typu CFD (Computational Fluid Dynamics) w oprogramowaniu Ansys CFD oraz OpenFOAM.</t>
@@ -634,12 +634,14 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -768,8 +770,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,7 +785,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="164.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="29.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="127.69"/>
   </cols>
   <sheetData>
@@ -835,11 +837,13 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J3" s="0"/>
       <c r="K3" s="3" t="str">
         <f aca="false">K30</f>
         <v>&lt;p&gt;&lt;script type="text/javascript" src="https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js"&gt;&lt;/script&gt;&lt;/p&gt;</v>
@@ -871,7 +875,7 @@
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -901,6 +905,7 @@
       <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
@@ -927,6 +932,7 @@
       <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
@@ -953,7 +959,7 @@
       <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -961,6 +967,7 @@
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="J8" s="0"/>
       <c r="K8" s="1" t="str">
         <f aca="false">K30</f>
         <v>&lt;p&gt;&lt;script type="text/javascript" src="https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js"&gt;&lt;/script&gt;&lt;/p&gt;</v>
@@ -985,6 +992,7 @@
       <c r="I9" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
@@ -1005,7 +1013,7 @@
       <c r="I10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="0" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1013,6 +1021,7 @@
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="J11" s="0"/>
       <c r="K11" s="1" t="str">
         <f aca="false">K30</f>
         <v>&lt;p&gt;&lt;script type="text/javascript" src="https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js"&gt;&lt;/script&gt;&lt;/p&gt;</v>
@@ -1043,7 +1052,7 @@
       <c r="I12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1066,6 +1075,7 @@
       <c r="I13" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
@@ -1086,6 +1096,7 @@
       <c r="I14" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
@@ -1106,6 +1117,7 @@
       <c r="I15" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
@@ -1126,7 +1138,7 @@
       <c r="I16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1149,6 +1161,7 @@
       <c r="I17" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
@@ -1169,7 +1182,7 @@
       <c r="I18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="0" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1192,6 +1205,7 @@
       <c r="I19" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
@@ -1212,7 +1226,7 @@
       <c r="I20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="0" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1242,7 +1256,7 @@
       <c r="I21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="0" t="s">
         <v>106</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -1268,12 +1282,14 @@
       <c r="I22" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="J22" s="0"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="J23" s="0"/>
       <c r="K23" s="1" t="str">
         <f aca="false">K30</f>
         <v>&lt;p&gt;&lt;script type="text/javascript" src="https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js"&gt;&lt;/script&gt;&lt;/p&gt;</v>
@@ -1298,7 +1314,7 @@
       <c r="I24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="0" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1321,7 +1337,7 @@
       <c r="I25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1344,7 +1360,7 @@
       <c r="I26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="0" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1367,7 +1383,7 @@
       <c r="I27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="0" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1391,7 +1407,7 @@
       <c r="I28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="0" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1414,11 +1430,13 @@
       <c r="I29" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="J30" s="0"/>
       <c r="K30" s="2" t="s">
         <v>149</v>
       </c>
@@ -1427,6 +1445,7 @@
       <c r="B31" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="J31" s="0"/>
       <c r="K31" s="1" t="s">
         <v>151</v>
       </c>
@@ -1435,6 +1454,7 @@
       <c r="B32" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="J32" s="0"/>
       <c r="K32" s="1" t="s">
         <v>151</v>
       </c>
@@ -1443,6 +1463,7 @@
       <c r="B33" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="J33" s="0"/>
       <c r="K33" s="1" t="s">
         <v>151</v>
       </c>
@@ -1451,18 +1472,19 @@
       <c r="B34" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="J34" s="0"/>
       <c r="K34" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="b">
+      <c r="A35" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="0"/>
       <c r="E35" s="7" t="s">
         <v>156</v>
       </c>
@@ -1478,11 +1500,13 @@
       <c r="I35" s="8" t="s">
         <v>158</v>
       </c>
+      <c r="J35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="J36" s="0"/>
       <c r="K36" s="1" t="s">
         <v>151</v>
       </c>
@@ -1513,7 +1537,7 @@
       <c r="I37" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="0" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1530,37 +1554,29 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="aleksander.krzywdzinski@pwr.edu.pl"/>
     <hyperlink ref="I4" r:id="rId2" display="marcin.opalski@pwr.edu.pl"/>
-    <hyperlink ref="J4" r:id="rId3" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/marcin_opalski.jpg"/>
-    <hyperlink ref="I5" r:id="rId4" display="agnieszka.ochman@pwr.edu.pl"/>
-    <hyperlink ref="I6" r:id="rId5" display="daria.krasota@pwr.edu.pl"/>
-    <hyperlink ref="I7" r:id="rId6" display="sindu.daniarta@pwr.edu.pl"/>
-    <hyperlink ref="J7" r:id="rId7" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/sindu_daniarta.jpg"/>
-    <hyperlink ref="I9" r:id="rId8" display="marek.lewkowicz@pwr.edu.pl"/>
-    <hyperlink ref="I10" r:id="rId9" display="zbigniew.gnutek@pwr.edu.pl"/>
-    <hyperlink ref="J10" r:id="rId10" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/zbigniew_gnutek.jpg"/>
-    <hyperlink ref="I14" r:id="rId11" display="adam.ruziewicz@pwr.edu.pl"/>
-    <hyperlink ref="I15" r:id="rId12" display="jozef.rak@pwr.edu.pl"/>
-    <hyperlink ref="I16" r:id="rId13" display="michal.pomorski@pwr.edu.pl"/>
-    <hyperlink ref="J16" r:id="rId14" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/michal_pomorski.jpg"/>
-    <hyperlink ref="I17" r:id="rId15" display="ewa.olko@pwr.edu.pl"/>
-    <hyperlink ref="I18" r:id="rId16" display="pawel.pacyga@pwr.edu.pl"/>
-    <hyperlink ref="J18" r:id="rId17" display="https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/pawel_pacyga.jpg"/>
-    <hyperlink ref="I19" r:id="rId18" display="marcin.michalski@pwr.edu.pl"/>
-    <hyperlink ref="I20" r:id="rId19" display="bartosz.gil@pwr.edu.pl"/>
-    <hyperlink ref="J20" r:id="rId20" display="https://thermores.pwr.edu.pl/fcp/RGBUKOQtTKlQhbx08SlkAVgNeUTgtCgg9ACFDCwgCFiFPFRYqCl5tDXdAGHpEQVgQaxMDOCAEDgMdLA5fRE0OPxZSBw/157/public/foto/bartosz_gil.jpg"/>
-    <hyperlink ref="I21" r:id="rId21" display="cezary.czajkowski@pwr.edu.pl"/>
-    <hyperlink ref="J21" r:id="rId22" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/cezary_czajkowski.jpg"/>
-    <hyperlink ref="I22" r:id="rId23" display="przemyslaw.blasiak@pwr.edu.pl"/>
-    <hyperlink ref="I24" r:id="rId24" display="sabina.rosiek@pwr.edu.pl"/>
-    <hyperlink ref="J24" r:id="rId25" display="https://thermores.pwr.edu.pl/fcp/xGBUKOQtTKlQhbx08SlkTUgFFUWRuHQwFDBoIVURNFDgPW1ZpCFghUHcKVigEQR1BXQEsKTwdAQsKJBVYCRlYdxdFDy4Z/157/public/foto/sabina_rosiek.jpg"/>
-    <hyperlink ref="I25" r:id="rId26" display="slawomir.pietrowicz@pwr.edu.pl"/>
-    <hyperlink ref="I26" r:id="rId27" display="magdalena.nems@pwr.edu.pl"/>
-    <hyperlink ref="I27" r:id="rId28" display="artur.nems@pwr.edu.pl"/>
-    <hyperlink ref="I28" r:id="rId29" display="jacek.lamperski@pwr.edu.pl"/>
-    <hyperlink ref="I29" r:id="rId30" display="piotr.kolasinski@pwr.edu.pl"/>
-    <hyperlink ref="K30" r:id="rId31" display="&lt;p&gt;&lt;script type=&quot;text/javascript&quot; src=&quot;https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js&quot;&gt;&lt;/script&gt;&lt;/p&gt;"/>
-    <hyperlink ref="I35" r:id="rId32" display="jerzy.zon@pwr.edu.pl"/>
-    <hyperlink ref="I37" r:id="rId33" display="dominik.mazur@pwr.edu.pl"/>
+    <hyperlink ref="I5" r:id="rId3" display="agnieszka.ochman@pwr.edu.pl"/>
+    <hyperlink ref="I6" r:id="rId4" display="daria.krasota@pwr.edu.pl"/>
+    <hyperlink ref="I7" r:id="rId5" display="sindu.daniarta@pwr.edu.pl"/>
+    <hyperlink ref="I9" r:id="rId6" display="marek.lewkowicz@pwr.edu.pl"/>
+    <hyperlink ref="I10" r:id="rId7" display="zbigniew.gnutek@pwr.edu.pl"/>
+    <hyperlink ref="I14" r:id="rId8" display="adam.ruziewicz@pwr.edu.pl"/>
+    <hyperlink ref="I15" r:id="rId9" display="jozef.rak@pwr.edu.pl"/>
+    <hyperlink ref="I16" r:id="rId10" display="michal.pomorski@pwr.edu.pl"/>
+    <hyperlink ref="I17" r:id="rId11" display="ewa.olko@pwr.edu.pl"/>
+    <hyperlink ref="I18" r:id="rId12" display="pawel.pacyga@pwr.edu.pl"/>
+    <hyperlink ref="I19" r:id="rId13" display="marcin.michalski@pwr.edu.pl"/>
+    <hyperlink ref="I20" r:id="rId14" display="bartosz.gil@pwr.edu.pl"/>
+    <hyperlink ref="I21" r:id="rId15" display="cezary.czajkowski@pwr.edu.pl"/>
+    <hyperlink ref="I22" r:id="rId16" display="przemyslaw.blasiak@pwr.edu.pl"/>
+    <hyperlink ref="I24" r:id="rId17" display="sabina.rosiek@pwr.edu.pl"/>
+    <hyperlink ref="I25" r:id="rId18" display="slawomir.pietrowicz@pwr.edu.pl"/>
+    <hyperlink ref="I26" r:id="rId19" display="magdalena.nems@pwr.edu.pl"/>
+    <hyperlink ref="I27" r:id="rId20" display="artur.nems@pwr.edu.pl"/>
+    <hyperlink ref="I28" r:id="rId21" display="jacek.lamperski@pwr.edu.pl"/>
+    <hyperlink ref="I29" r:id="rId22" display="piotr.kolasinski@pwr.edu.pl"/>
+    <hyperlink ref="K30" r:id="rId23" display="&lt;p&gt;&lt;script type=&quot;text/javascript&quot; src=&quot;https://cdn.jsdelivr.net/gh/dawidsowa/Automatyzacja-Thermores/scripts/replace_header.js&quot;&gt;&lt;/script&gt;&lt;/p&gt;"/>
+    <hyperlink ref="I35" r:id="rId24" display="jerzy.zon@pwr.edu.pl"/>
+    <hyperlink ref="I37" r:id="rId25" display="dominik.mazur@pwr.edu.pl"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
